--- a/biology/Histoire de la zoologie et de la botanique/Atsushi_Ebihara/Atsushi_Ebihara.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Atsushi_Ebihara/Atsushi_Ebihara.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Atsushi Ebihara est un botaniste japonais.
 Il s'est spécialisé dans la systématique des fougères et plus particulièrement de la famille des Hyménophyllacées.
-Diplômé de l'université de Tokyo, il travaille au département de botanique du Musée national de la Nature et des Sciences de Tokyo et il y exerce la fonction conservateur des collections des plantes vasculaires[1].
+Diplômé de l'université de Tokyo, il travaille au département de botanique du Musée national de la Nature et des Sciences de Tokyo et il y exerce la fonction conservateur des collections des plantes vasculaires.
 </t>
         </is>
       </c>
@@ -513,7 +525,9 @@
           <t>Quelques publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Atsushi Ebihara est le coauteur de nombreux articles dont :
 avec Sabine Hennequin, Sophie Bary, Jean-Yves Dubuisson et Élodie Boucheron-Dubuisson - Anatomical diversity and regressive evolution in trichomanoid filmy ferns (Hymenophyllaceae): A phylogenetic approach - Comptes Rendus Biologies, Volume 334, n° 12 - Paris : Académie des Sciences, décembre 2011 - p. 880-895
